--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4015284.005124514</v>
+        <v>4009562.39315663</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>321.5296920684223</v>
       </c>
       <c r="G2" t="n">
-        <v>331.2181161401128</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>21.16154086980906</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.37651464118758</v>
+        <v>72.8213969664593</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7.270565549321421</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>138.2551569781291</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>329.2630261709932</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>17.6853277387067</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3522746327441211</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>84.69473660442844</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>260.6995800236712</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873216</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.01141625626346</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>4.04318711639923</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,16 +2058,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>80.14472699070565</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>209.567519332071</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>67.33742371513297</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>54.01253154060703</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.0325688578959</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>143.3827689650882</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>48.66415345205467</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W31" t="n">
-        <v>34.34866289699152</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247655</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C34" t="n">
-        <v>48.32930526869188</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881778</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589021</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.4035631048018</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>12.5180689190305</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="G43" t="n">
-        <v>10.87319794806435</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>58.23870568848224</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1139.506187451444</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>1139.506187451444</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>781.2404888446938</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>395.4522362464496</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>388.5067354972461</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,7 +4333,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1526.106027515566</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>706.7536903985465</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>479.4455030671483</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1816.955293888756</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>1443.489535627676</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y5" t="n">
-        <v>1443.489535627676</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>211.4036268380754</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>61.28698742573962</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>61.28698742573962</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>61.28698742573962</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>61.28698742573962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>61.28698742573962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2326.291240147604</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="W8" t="n">
-        <v>1978.468598880909</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2072.529454785695</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.3562320976883</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.3562320976883</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>443.6717438918015</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>443.6717438918015</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5044,31 +5044,31 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3195.001976422504</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3697.97444730184</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5083,10 +5083,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,13 +5120,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.1112734427666</v>
+        <v>972.7495048756253</v>
       </c>
       <c r="C13" t="n">
-        <v>181.1112734427666</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D13" t="n">
-        <v>181.1112734427666</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E13" t="n">
-        <v>181.1112734427666</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>181.1112734427666</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5229,22 +5229,22 @@
         <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="W13" t="n">
-        <v>811.5418683145538</v>
+        <v>1603.180099747412</v>
       </c>
       <c r="X13" t="n">
-        <v>583.5523174165364</v>
+        <v>1375.190548849395</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.7597382730063</v>
+        <v>1154.397969705865</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143015</v>
@@ -5266,10 +5266,10 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551631</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001597</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5281,19 +5281,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N14" t="n">
-        <v>2883.993034926781</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O14" t="n">
-        <v>3763.957685256236</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.6776738607302</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C16" t="n">
-        <v>245.6776738607302</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1931.079409280195</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1931.079409280195</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1709.312793849721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1420.209926975365</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1165.525438769478</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W16" t="n">
-        <v>876.1082687325173</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X16" t="n">
-        <v>648.1187178345</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y16" t="n">
-        <v>427.3261386909699</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001591</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5518,19 +5518,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2504.619866888352</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>3051.398683947134</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5542,10 +5542,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604875</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1372.106239571003</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1082.689069534042</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>854.6995186360249</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>633.9069394924948</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5767,31 +5767,31 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5831,10 +5831,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.9043113423046</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="C22" t="n">
-        <v>260.9043113423046</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D22" t="n">
-        <v>260.9043113423046</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E22" t="n">
-        <v>260.9043113423046</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F22" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1398.502396591304</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1143.817908385417</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>854.4007383484569</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807097</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,7 +6098,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6107,7 +6107,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>401.9038525862971</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>232.9676696583902</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>232.9676696583902</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>232.9676696583902</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>232.9676696583902</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6150,16 +6150,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431758</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.643526557402</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1100.959038351515</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>811.5418683145542</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>583.5523174165369</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>583.5523174165369</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2628.734306600803</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
-        <v>3507.942201196468</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,16 +6335,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.3568109459524</v>
+        <v>675.7429179653792</v>
       </c>
       <c r="C28" t="n">
-        <v>505.4206280180455</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D28" t="n">
-        <v>505.4206280180455</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E28" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F28" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>192.886711630049</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1595.590682874127</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.556111024461</v>
+        <v>1595.590682874127</v>
       </c>
       <c r="W28" t="n">
-        <v>1123.1389409875</v>
+        <v>1306.173512837166</v>
       </c>
       <c r="X28" t="n">
-        <v>895.1493900894825</v>
+        <v>1078.183961939149</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.3568109459524</v>
+        <v>857.3913827956189</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2215.249704195857</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N29" t="n">
-        <v>3195.001976422504</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>974.4454116758762</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>805.5092287479694</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1156.093876506116</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1156.093876506116</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1156.093876506116</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>439.1815555980836</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.724257814701</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1131.039769608814</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>841.6225995718535</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>841.6225995718535</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>620.8300204283233</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6943,19 +6943,19 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>3944.053400686432</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4338.82776704361</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862919</v>
@@ -6964,25 +6964,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>804.6916664225474</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>635.7554834946405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>485.6388440823048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>485.6388440823048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>338.7488965843944</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>338.7488965843944</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1542.890966501056</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1253.473796464095</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>1025.484245566078</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>804.6916664225474</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7153,52 +7153,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427191</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1741.136558882383</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M38" t="n">
-        <v>2274.668463554307</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.420735780953</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.39320666029</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946815</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7244,22 +7244,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931529</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1253.788099626699</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>964.3709295897384</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>951.7264155301116</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>951.7264155301116</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7411,22 +7411,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1339.447785386687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2317.998088216516</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.8778888732404</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8778888732404</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D43" t="n">
-        <v>252.7612494609047</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E43" t="n">
-        <v>252.7612494609047</v>
+        <v>112.9912177599115</v>
       </c>
       <c r="F43" t="n">
-        <v>252.7612494609047</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1322.725653781988</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>1033.308483745028</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>805.3189328470103</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>584.5263537034801</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7648,25 +7648,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188665</v>
@@ -7730,10 +7730,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3858.203957510972</v>
+        <v>411.3871648742116</v>
       </c>
       <c r="C46" t="n">
-        <v>3689.267774583066</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D46" t="n">
-        <v>3539.15113517073</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E46" t="n">
-        <v>3391.238041588337</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>3244.348094090426</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>3076.645257465145</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>2930.428070683003</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T46" t="n">
-        <v>4778.05172241972</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U46" t="n">
-        <v>4778.05172241972</v>
+        <v>1585.919417988847</v>
       </c>
       <c r="V46" t="n">
-        <v>4778.05172241972</v>
+        <v>1331.23492978296</v>
       </c>
       <c r="W46" t="n">
-        <v>4488.634552382759</v>
+        <v>1041.817759745999</v>
       </c>
       <c r="X46" t="n">
-        <v>4260.645001484742</v>
+        <v>813.8282088479815</v>
       </c>
       <c r="Y46" t="n">
-        <v>4039.852422341212</v>
+        <v>593.0356297044514</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,28 +8692,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>103.7862464855144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>229.1155640189935</v>
       </c>
       <c r="P14" t="n">
-        <v>315.167921710932</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>248.8400772687158</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400235</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,19 +9883,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>335.7869470069518</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10114,25 +10114,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>344.702583647683</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1012371454191</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400261</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.917311333789257e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,13 +10600,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>354.4836849406617</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>272.8828616575882</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>67.53663776704173</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>81.33107165459978</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>25.82341831291984</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>63.92073641378387</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>171.9929163331224</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>78.08362430779827</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>232.1993066650058</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>29.99323940113237</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>3.051193681480953</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>237.5476847535582</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W31" t="n">
-        <v>252.1743354395995</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C34" t="n">
-        <v>118.917515829936</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3514518095189487</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>213.1915864700067</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>128.1651665445294</v>
       </c>
       <c r="G43" t="n">
-        <v>155.1526103109639</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>83.32522828944178</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>227.9731325171306</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
+        <v>774309.4844296172</v>
+      </c>
+      <c r="F2" t="n">
         <v>774309.4844296171</v>
       </c>
-      <c r="F2" t="n">
-        <v>774309.4844296168</v>
-      </c>
       <c r="G2" t="n">
-        <v>774309.4844296167</v>
+        <v>774309.4844296171</v>
       </c>
       <c r="H2" t="n">
         <v>774309.4844296168</v>
       </c>
       <c r="I2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="J2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="K2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="L2" t="n">
+        <v>774309.4844296167</v>
+      </c>
+      <c r="M2" t="n">
         <v>774309.4844296169</v>
       </c>
-      <c r="J2" t="n">
-        <v>774309.4844296169</v>
-      </c>
-      <c r="K2" t="n">
-        <v>774309.4844296168</v>
-      </c>
-      <c r="L2" t="n">
-        <v>774309.4844296165</v>
-      </c>
-      <c r="M2" t="n">
-        <v>774309.4844296164</v>
-      </c>
       <c r="N2" t="n">
-        <v>774309.4844296168</v>
+        <v>774309.4844296171</v>
       </c>
       <c r="O2" t="n">
-        <v>774309.4844296167</v>
+        <v>774309.4844296172</v>
       </c>
       <c r="P2" t="n">
-        <v>774309.4844296169</v>
+        <v>774309.4844296171</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>3.861628258540616e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.814989639618214e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918992</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="L4" t="n">
-        <v>18148.49231918995</v>
-      </c>
       <c r="M4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918985</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="O4" t="n">
         <v>18148.49231918994</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26493,10 +26493,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="K5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26505,7 +26505,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55659.91851740557</v>
+        <v>-55659.91851740549</v>
       </c>
       <c r="C6" t="n">
         <v>534307.9606971388</v>
       </c>
       <c r="D6" t="n">
-        <v>534307.9606971388</v>
+        <v>534307.960697139</v>
       </c>
       <c r="E6" t="n">
-        <v>-67599.94013669319</v>
+        <v>-68271.89503895103</v>
       </c>
       <c r="F6" t="n">
-        <v>659777.4738567133</v>
+        <v>659105.5189544556</v>
       </c>
       <c r="G6" t="n">
-        <v>659777.4738567132</v>
+        <v>659105.5189544556</v>
       </c>
       <c r="H6" t="n">
-        <v>659777.4738567133</v>
+        <v>659105.5189544554</v>
       </c>
       <c r="I6" t="n">
-        <v>659777.4738567133</v>
+        <v>659105.5189544556</v>
       </c>
       <c r="J6" t="n">
-        <v>483354.2546641207</v>
+        <v>482682.2997618626</v>
       </c>
       <c r="K6" t="n">
-        <v>659777.4738567133</v>
+        <v>659105.5189544556</v>
       </c>
       <c r="L6" t="n">
-        <v>659777.473856713</v>
+        <v>659105.5189544553</v>
       </c>
       <c r="M6" t="n">
-        <v>530135.159017768</v>
+        <v>529463.2041155108</v>
       </c>
       <c r="N6" t="n">
-        <v>659777.4738567133</v>
+        <v>659105.5189544556</v>
       </c>
       <c r="O6" t="n">
-        <v>659777.473856713</v>
+        <v>659105.5189544557</v>
       </c>
       <c r="P6" t="n">
-        <v>659777.4738567134</v>
+        <v>659105.5189544556</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26758,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.268737049522768e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>85.34635367328917</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>82.56605388068215</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>190.9839980802098</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>334.357327022293</v>
+        <v>309.9124446970213</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6950562430168</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>78.19316337952867</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>19.9779425464198</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>138.4855611030885</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>224.6828308253401</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-4.86925952942726e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.961097950697877e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-7.268737049522768e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32320,7 +32320,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34447,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>502.5482327048862</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>737.1685649072126</v>
       </c>
       <c r="P14" t="n">
-        <v>713.9299079303039</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35886,10 +35886,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>743.6379293484354</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35898,10 +35898,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>756.893078156935</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -35968,7 +35968,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282428</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36603,19 +36603,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>888.0887824198633</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>883.6236994779098</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>824.1542380336382</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282451</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>384.0473624437464</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>810.0737993329936</v>
+        <v>753.4190306414129</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>728.4729760499204</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>575.5896386552608</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4009562.39315663</v>
+        <v>4012967.884281078</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836231</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>321.5296920684223</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>233.6257157225927</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.8213969664593</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>246.3477836159939</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.938553216411962</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231293</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>138.2551569781291</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586851</v>
       </c>
       <c r="H10" t="n">
-        <v>17.6853277387067</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534544</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>159.4891977481208</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1548,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>260.6995800236712</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873216</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>258.3966381437579</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.04318711639923</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.02146927219732</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>209.567519332071</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2259,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>46.59226380081606</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>54.01253154060703</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>36.41670903610036</v>
       </c>
     </row>
     <row r="26">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>48.66415345205467</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -3006,10 +3006,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
-        <v>235.9955072668616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881778</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589021</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>17.25588147840188</v>
+        <v>128.1592673228011</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292652</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851122</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247769</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098733976844</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004763</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>58.23870568848224</v>
+        <v>46.32824838328909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4369,13 +4369,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1919.063478780785</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>1413.148854308789</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1054.883155702039</v>
       </c>
       <c r="E5" t="n">
         <v>806.0470106353782</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.620445413572</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,40 +4649,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>350.7041574627002</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>202.7910638803071</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858881</v>
+        <v>55.90111638239674</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>55.90111638239674</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>55.90111638239674</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2072.529454785695</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.291240147604</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.529454785695</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2072.529454785695</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2072.529454785695</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>2072.529454785695</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>2072.529454785695</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,13 +4892,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477204</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653273</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674169</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="G10" t="n">
-        <v>253.7923845674169</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5038,55 +5038,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O11" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P11" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q11" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>972.7495048756253</v>
+        <v>720.69789701373</v>
       </c>
       <c r="C13" t="n">
-        <v>803.8133219477185</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D13" t="n">
-        <v>653.6966825353827</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.513008862232</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1866.513008862232</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>1603.180099747412</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>1375.190548849395</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y13" t="n">
-        <v>1154.397969705865</v>
+        <v>902.3463618439697</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551631</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001597</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5284,13 +5284,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.293752345675</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M14" t="n">
-        <v>2047.844055175504</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N14" t="n">
-        <v>3027.596327402151</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O14" t="n">
         <v>3757.393206660291</v>
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.4168978689405</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C16" t="n">
-        <v>540.4807149410336</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.556111024461</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="W16" t="n">
-        <v>1123.1389409875</v>
+        <v>1503.650876735815</v>
       </c>
       <c r="X16" t="n">
-        <v>895.1493900894825</v>
+        <v>1275.661325837798</v>
       </c>
       <c r="Y16" t="n">
-        <v>891.0653626991802</v>
+        <v>1054.868746694268</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001591</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5715,10 +5715,10 @@
         <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>854.4007383484569</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="C22" t="n">
-        <v>854.4007383484569</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D22" t="n">
-        <v>704.2840989361212</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E22" t="n">
-        <v>556.371005353728</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1909.280573376607</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1717.594689203433</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1495.828073772959</v>
       </c>
       <c r="U22" t="n">
-        <v>1398.502396591304</v>
+        <v>1495.828073772959</v>
       </c>
       <c r="V22" t="n">
-        <v>1143.817908385417</v>
+        <v>1241.143585567072</v>
       </c>
       <c r="W22" t="n">
-        <v>854.4007383484569</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="X22" t="n">
-        <v>854.4007383484569</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="Y22" t="n">
-        <v>854.4007383484569</v>
+        <v>951.7264155301116</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,19 +5974,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,16 +6098,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6235,43 +6235,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2016.310259422546</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6302,16 +6302,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.7429179653792</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1595.590682874127</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1595.590682874127</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>1306.173512837166</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>1078.183961939149</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>857.3913827956189</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6472,10 +6472,10 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232731</v>
@@ -6654,7 +6654,7 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
         <v>1015.408799357142</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6706,13 +6706,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6891,19 +6891,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6925,46 +6925,46 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
         <v>4461.783306331037</v>
@@ -6973,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7177,19 +7177,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1364.144379432265</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>1897.67628410419</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N38" t="n">
-        <v>2877.428556330836</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
         <v>4470.748294107237</v>
@@ -7201,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7259,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="41">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,16 +7520,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.9043113423046</v>
+        <v>691.980755747597</v>
       </c>
       <c r="C43" t="n">
-        <v>260.9043113423046</v>
+        <v>523.0445728196901</v>
       </c>
       <c r="D43" t="n">
-        <v>260.9043113423046</v>
+        <v>372.9279334073543</v>
       </c>
       <c r="E43" t="n">
-        <v>112.9912177599115</v>
+        <v>225.0148398249612</v>
       </c>
       <c r="F43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>1094.421799721367</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>873.6292205778367</v>
       </c>
     </row>
     <row r="44">
@@ -7627,73 +7627,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074186</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686927</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522045</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193967</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420611</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750063</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107239</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.59277249732</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216193</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494863</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468567</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939011</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919357</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320206</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454334</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008787</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.96131142684</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902941</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054954</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7760,19 +7760,19 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>411.3871648742116</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="C46" t="n">
-        <v>242.4509819463048</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D46" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442051</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927004</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518525</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952183</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862225</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689051</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258577</v>
       </c>
       <c r="U46" t="n">
-        <v>1585.919417988847</v>
+        <v>1406.264298770406</v>
       </c>
       <c r="V46" t="n">
-        <v>1331.23492978296</v>
+        <v>1151.579810564519</v>
       </c>
       <c r="W46" t="n">
-        <v>1041.817759745999</v>
+        <v>862.1626405275587</v>
       </c>
       <c r="X46" t="n">
-        <v>813.8282088479815</v>
+        <v>634.1730896295413</v>
       </c>
       <c r="Y46" t="n">
-        <v>593.0356297044514</v>
+        <v>413.3805104860112</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260173</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,16 +8932,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>229.1155640189935</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9883,10 +9883,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>39.4832155777259</v>
       </c>
       <c r="N26" t="n">
-        <v>39.4832155777267</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -10120,13 +10120,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>344.702583647683</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277306</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>297.8289162490807</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701308</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.261923898709938e-11</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7.75762335050706</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23472,16 +23472,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>25.82341831291984</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,25 +23703,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>28.12636019283309</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.2253518264305</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>16.14213605696619</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>42.33988886923127</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>232.1993066650058</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>182.1679443159944</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>237.5476847535582</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25329,7 +25329,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>69.99732345939672</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>128.1651665445294</v>
+        <v>17.26178070013015</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983829</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>227.9731325171306</v>
+        <v>239.8835898223238</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632832.3480643338</v>
+        <v>632832.3480643339</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632832.3480643338</v>
+        <v>632832.348064334</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="F2" t="n">
         <v>774309.4844296172</v>
       </c>
-      <c r="F2" t="n">
-        <v>774309.4844296171</v>
-      </c>
       <c r="G2" t="n">
-        <v>774309.4844296171</v>
+        <v>774309.4844296168</v>
       </c>
       <c r="H2" t="n">
-        <v>774309.4844296168</v>
+        <v>774309.4844296169</v>
       </c>
       <c r="I2" t="n">
-        <v>774309.4844296171</v>
+        <v>774309.4844296167</v>
       </c>
       <c r="J2" t="n">
-        <v>774309.4844296171</v>
+        <v>774309.4844296167</v>
       </c>
       <c r="K2" t="n">
         <v>774309.4844296171</v>
       </c>
       <c r="L2" t="n">
-        <v>774309.4844296167</v>
+        <v>774309.4844296169</v>
       </c>
       <c r="M2" t="n">
-        <v>774309.4844296169</v>
+        <v>774309.4844296171</v>
       </c>
       <c r="N2" t="n">
         <v>774309.4844296171</v>
       </c>
       <c r="O2" t="n">
-        <v>774309.4844296172</v>
+        <v>774309.4844296168</v>
       </c>
       <c r="P2" t="n">
-        <v>774309.4844296171</v>
+        <v>774309.4844296168</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.861628258540616e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>5.814989639618214e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-7.546847158422069e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,16 +26423,16 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>18148.49231918989</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
@@ -26441,7 +26441,7 @@
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918993</v>
@@ -26450,7 +26450,7 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918985</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="N4" t="n">
         <v>18148.49231918994</v>
@@ -26459,7 +26459,7 @@
         <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231919019</v>
       </c>
     </row>
     <row r="5">
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371358</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55659.91851740549</v>
+        <v>-55659.91851740557</v>
       </c>
       <c r="C6" t="n">
         <v>534307.9606971388</v>
       </c>
       <c r="D6" t="n">
-        <v>534307.960697139</v>
+        <v>534307.9606971388</v>
       </c>
       <c r="E6" t="n">
-        <v>-68271.89503895103</v>
+        <v>-67667.135626919</v>
       </c>
       <c r="F6" t="n">
-        <v>659105.5189544556</v>
+        <v>659710.2783664878</v>
       </c>
       <c r="G6" t="n">
-        <v>659105.5189544556</v>
+        <v>659710.2783664875</v>
       </c>
       <c r="H6" t="n">
-        <v>659105.5189544554</v>
+        <v>659710.2783664876</v>
       </c>
       <c r="I6" t="n">
-        <v>659105.5189544556</v>
+        <v>659710.2783664874</v>
       </c>
       <c r="J6" t="n">
-        <v>482682.2997618626</v>
+        <v>483287.0591738945</v>
       </c>
       <c r="K6" t="n">
-        <v>659105.5189544556</v>
+        <v>659710.2783664877</v>
       </c>
       <c r="L6" t="n">
-        <v>659105.5189544553</v>
+        <v>659710.2783664876</v>
       </c>
       <c r="M6" t="n">
-        <v>529463.2041155108</v>
+        <v>530067.963527543</v>
       </c>
       <c r="N6" t="n">
-        <v>659105.5189544556</v>
+        <v>659710.2783664877</v>
       </c>
       <c r="O6" t="n">
-        <v>659105.5189544557</v>
+        <v>659710.2783664875</v>
       </c>
       <c r="P6" t="n">
-        <v>659105.5189544556</v>
+        <v>659710.2783664897</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593295</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.268737049522768e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-2.640394206809976e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>85.34635367328917</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>136.1053849558763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>309.9124446970213</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>135.5825864562679</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>133.0270685759263</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.47535211858212</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>78.19316337952867</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="H10" t="n">
-        <v>138.4855611030885</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.119210872682379e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.961097950697877e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-7.268737049522768e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32080,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32320,7 +32320,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33754,10 +33754,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681583</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844653</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974794</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953976</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003791</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362317</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574969</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990094997</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099035</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746392</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781674</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806918</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451114</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345266</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502559</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798524</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752231</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353145</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138779</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233455</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837904</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970232</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002912</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987477</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905536</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238302</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898467</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046221</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430531</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311873</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451741999</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702017</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.167346909881</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316422</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883105</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085992</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802161</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895875</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712186</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553025</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112267</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780291</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,19 +35412,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>727.3874636142364</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35433,7 +35433,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>753.4190306414129</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>737.1685649072126</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35728,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35968,7 +35968,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>578.4043314079527</v>
       </c>
       <c r="N26" t="n">
-        <v>591.7850509906382</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36840,13 +36840,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>883.6236994779098</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37074,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200628</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>753.4190306414129</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,10 +37557,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687113</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255294</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427802</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302242</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.648759824893</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509621</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193697</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037179</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222387</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597637</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609555</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340037</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013271</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004572</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525787</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985961</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306577</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443188</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701972</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934828</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.856946167539</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226389</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451096</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789312</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
